--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github res\why-so-serious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B23AC-434E-4FAB-9A38-52E5D0BE02E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F426713-CE02-C649-BDF9-B5079ABB57A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.8~8.13" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,11 +100,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,9 +261,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -284,6 +276,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,7 +386,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,15 +400,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>414617</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -423,7 +418,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3498C1C5-A9AD-4A2F-A2CE-FABD0098E95C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -445,14 +440,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -462,21 +457,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3074" name="Check Box 2" hidden="1">
@@ -485,7 +485,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E1E75-DC9D-4E4B-8B1F-3CFA4B39806F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -507,14 +507,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -524,21 +524,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
@@ -547,7 +552,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E1A9FE-B76D-4DAA-9F8E-4F903F086FF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -569,14 +574,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -586,21 +591,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3076" name="Check Box 4" hidden="1">
@@ -609,7 +619,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6E8D97-D847-450F-8D80-681C998E9C2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -631,14 +641,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -648,21 +658,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3077" name="Check Box 5" hidden="1">
@@ -671,7 +686,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DAA281-C908-4385-8207-45DF3DCC084C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -693,14 +708,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -710,21 +725,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3078" name="Check Box 6" hidden="1">
@@ -733,7 +753,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C5960-15AB-4F3C-A124-6E07F631AA32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -755,14 +775,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -772,21 +792,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3079" name="Check Box 7" hidden="1">
@@ -795,7 +820,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2C14CF-3B9E-4146-9852-216945D10DFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -817,14 +842,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -834,21 +859,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3080" name="Check Box 8" hidden="1">
@@ -857,7 +887,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF671D3A-92B1-4C91-88C0-CFC3F04A2035}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -879,14 +909,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -896,21 +926,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3081" name="Check Box 9" hidden="1">
@@ -919,7 +954,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9FFA4D-CD01-4146-8745-2D6D0585E384}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -941,14 +976,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -958,21 +993,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3082" name="Check Box 10" hidden="1">
@@ -981,7 +1021,7 @@
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95584A1C-C52E-40DD-988F-77AE6F78DD2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1003,14 +1043,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1020,21 +1060,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3083" name="Check Box 11" hidden="1">
@@ -1043,7 +1088,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DF1FF9-B09B-4663-8D24-A50514BC2BD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1065,14 +1110,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1082,21 +1127,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3084" name="Check Box 12" hidden="1">
@@ -1105,7 +1155,7 @@
                   <a14:compatExt spid="_x0000_s3084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D124D1F3-1C3B-4A2B-B288-887A2240E689}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1127,14 +1177,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1144,8 +1194,8 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1159,15 +1209,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>414617</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1199,14 +1249,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1216,21 +1266,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1239,7 +1294,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABE92C3-C976-4298-BEF4-5538EF7DDDF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1261,14 +1316,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1278,21 +1333,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1301,7 +1361,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9891D374-84FB-4DE7-A070-5E922D39FE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1323,14 +1383,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1340,21 +1400,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -1363,7 +1428,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794B2E18-A95F-4841-A11F-5F7240174C9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1385,14 +1450,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1402,21 +1467,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -1425,7 +1495,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C01D7E6-2F7D-4BC5-8BD2-CBCDEF649D5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1447,14 +1517,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1464,21 +1534,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -1487,7 +1562,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A24C4E2-4027-4F4D-8318-B00621E946A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1509,14 +1584,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1526,21 +1601,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -1549,7 +1629,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE8A7D3-4AA6-412B-AE7E-070840433984}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,14 +1651,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1588,21 +1668,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -1611,7 +1696,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428575F0-4056-401D-BCDC-D374794B57B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1633,14 +1718,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1650,21 +1735,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -1673,7 +1763,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E7DB11-07A2-42AD-ABE7-DEDB2C09EEC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1695,14 +1785,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1712,21 +1802,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -1735,7 +1830,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1855240F-FAF9-483A-AB7B-63524BD58D66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1757,14 +1852,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1774,21 +1869,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -1797,7 +1897,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9D864C-0785-45D8-9E8A-DD51B2FEDFCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1819,14 +1919,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1836,21 +1936,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -1859,7 +1964,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B2C232-1074-457E-B586-162376E22863}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1881,14 +1986,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1898,8 +2003,8 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2171,29 +2276,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D2E261-2FB6-4E8E-94D7-0D8A6E621BD7}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2201,183 +2306,183 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" thickBot="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2405,13 +2510,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2427,13 +2532,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2449,13 +2554,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2471,13 +2576,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2493,13 +2598,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2515,13 +2620,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2537,13 +2642,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2559,13 +2664,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2581,13 +2686,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2603,13 +2708,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2625,13 +2730,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2647,13 +2752,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2674,191 +2779,191 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+    <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" thickBot="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2886,13 +2991,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2908,13 +3013,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2930,13 +3035,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2952,13 +3057,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2974,13 +3079,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2996,13 +3101,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3018,13 +3123,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3040,13 +3145,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3062,13 +3167,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3084,13 +3189,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3106,13 +3211,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3128,13 +3233,13 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>411480</xdr:colOff>
+                    <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F426713-CE02-C649-BDF9-B5079ABB57A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB90CB4-113E-054A-9ECA-B5094FD68813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,26 @@
   </si>
   <si>
     <t>计组 编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础教程到4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础教程到14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础教程到36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660到15，51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660做10页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2274,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D2E261-2FB6-4E8E-94D7-0D8A6E621BD7}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2285,10 +2305,13 @@
     <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="21.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2320,7 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2305,8 +2328,11 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2314,8 +2340,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -2323,8 +2352,14 @@
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -2332,8 +2367,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2341,8 +2379,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2351,7 +2392,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2360,7 +2401,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2369,7 +2410,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2378,38 +2419,38 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github res\why-so-serious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B23AC-434E-4FAB-9A38-52E5D0BE02E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF02B32-1078-44B6-AB6A-ED99D853B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.8~8.13" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,11 +100,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,14 +256,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,8 +273,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,7 +385,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,13 +399,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>414617</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -423,7 +417,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3498C1C5-A9AD-4A2F-A2CE-FABD0098E95C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -462,21 +456,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3074" name="Check Box 2" hidden="1">
@@ -485,7 +484,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E1E75-DC9D-4E4B-8B1F-3CFA4B39806F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -524,21 +523,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
@@ -547,7 +551,7 @@
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E1A9FE-B76D-4DAA-9F8E-4F903F086FF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -586,21 +590,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3076" name="Check Box 4" hidden="1">
@@ -609,7 +618,7 @@
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6E8D97-D847-450F-8D80-681C998E9C2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000040C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -648,21 +657,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3077" name="Check Box 5" hidden="1">
@@ -671,7 +685,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DAA281-C908-4385-8207-45DF3DCC084C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -710,21 +724,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3078" name="Check Box 6" hidden="1">
@@ -733,7 +752,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5C5960-15AB-4F3C-A124-6E07F631AA32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -772,21 +791,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3079" name="Check Box 7" hidden="1">
@@ -795,7 +819,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2C14CF-3B9E-4146-9852-216945D10DFD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -834,21 +858,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3080" name="Check Box 8" hidden="1">
@@ -857,7 +886,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF671D3A-92B1-4C91-88C0-CFC3F04A2035}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -896,21 +925,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3081" name="Check Box 9" hidden="1">
@@ -919,7 +953,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9FFA4D-CD01-4146-8745-2D6D0585E384}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -958,21 +992,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3082" name="Check Box 10" hidden="1">
@@ -981,7 +1020,7 @@
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95584A1C-C52E-40DD-988F-77AE6F78DD2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1020,21 +1059,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3083" name="Check Box 11" hidden="1">
@@ -1043,7 +1087,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DF1FF9-B09B-4663-8D24-A50514BC2BD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1082,21 +1126,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3084" name="Check Box 12" hidden="1">
@@ -1105,7 +1154,7 @@
                   <a14:compatExt spid="_x0000_s3084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D124D1F3-1C3B-4A2B-B288-887A2240E689}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1144,8 +1193,8 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1159,13 +1208,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>414617</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
@@ -1216,21 +1265,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1239,7 +1293,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABE92C3-C976-4298-BEF4-5538EF7DDDF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1278,21 +1332,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1301,7 +1360,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9891D374-84FB-4DE7-A070-5E922D39FE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1340,21 +1399,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -1363,7 +1427,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794B2E18-A95F-4841-A11F-5F7240174C9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1402,21 +1466,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -1425,7 +1494,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C01D7E6-2F7D-4BC5-8BD2-CBCDEF649D5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1464,21 +1533,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -1487,7 +1561,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A24C4E2-4027-4F4D-8318-B00621E946A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1526,21 +1600,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -1549,7 +1628,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE8A7D3-4AA6-412B-AE7E-070840433984}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1588,21 +1667,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -1611,7 +1695,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428575F0-4056-401D-BCDC-D374794B57B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1650,21 +1734,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -1673,7 +1762,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E7DB11-07A2-42AD-ABE7-DEDB2C09EEC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1712,21 +1801,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -1735,7 +1829,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1855240F-FAF9-483A-AB7B-63524BD58D66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1774,21 +1868,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -1797,7 +1896,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9D864C-0785-45D8-9E8A-DD51B2FEDFCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1836,21 +1935,26 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>115644</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>205740</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="298973" cy="319144"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>411480</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -1859,7 +1963,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B2C232-1074-457E-B586-162376E22863}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1898,8 +2002,8 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2177,23 +2281,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2202,182 +2305,182 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2676,189 +2779,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB90CB4-113E-054A-9ECA-B5094FD68813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29ECFE-2300-2E46-A608-F7046E3388E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB29ECFE-2300-2E46-A608-F7046E3388E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9766D-20BF-844B-A15D-8682D0AB9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -294,11 +293,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -318,7 +320,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,7 +364,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2297,233 +2299,232 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="3"/>
-    <col min="5" max="5" width="21.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2822,189 +2823,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9766D-20BF-844B-A15D-8682D0AB9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB58A043-4E92-A64E-8D03-A78E0CC83E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25540" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.8~8.13" sheetId="3" r:id="rId1"/>
-    <sheet name="模板" sheetId="2" r:id="rId2"/>
+    <sheet name="8.14～8.20" sheetId="2" r:id="rId2"/>
+    <sheet name="模板 (2)" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Sr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,63 @@
     <t>660做10页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第一周总结：
+任务未完成达一半，任务量勉强算合适，是个人原因没有完成既定的任务。后半期精力难以集中，应安排体育活动恢复精力，早起未能完成。睡眠难以保障，需要较长时间才能入睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语单词的背诵没有明确安排，尝试在一周中选择两天去图书馆学习，目前定在周二和周四。若效果好则多安排几天，学习效率低。Youtube看的太多，周一早安排体育活动，目标依然坚定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微分中值定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导数的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n维向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找 - 树形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找   B和B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构 查找 7.1～7.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计组 存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周未完成任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -272,11 +330,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -300,7 +376,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +475,67 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
 </file>
 
@@ -1902,24 +2050,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1965,6 +2113,996 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E260245-C5ED-F74F-B90A-4B4C535B3C95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C35BF2A-B1E6-3E4F-9286-80FA50374D6C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DF22BF-D0BC-074B-87D1-B69AC1D8B0EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F832FD32-CA57-6741-A955-B7A7FFB58E82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27732C1-DF5C-224F-A62E-55D61A714820}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACB4B48-A9F2-A041-AB52-EF3ED265A3A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492CD96D-5527-F346-9CEE-1E99F0631E7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5124" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5124"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F7187A-F771-2349-BFED-8086270B2901}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5125" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5125"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D5A996-ED7E-9E4A-B4E1-469E1300A84A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5126" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5126"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B8D144-2F12-C444-AA12-92ED9F62BCBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5127" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5127"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64294892-ED74-7E41-A9EE-BE1C160AA69A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5128" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5128"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F8B1F7-62A9-0247-AC1E-37E8B0FA0F79}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5129" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5129"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F214EC4D-BEA3-8E4D-A665-CADA5E4BF8E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5130" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5130"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B17930-3333-CB46-98B4-ED9546FF083B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5131" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0710C8C8-F705-1B41-8A90-A82E81E8D6B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
@@ -1980,13 +3118,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="5132" name="Check Box 12" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
+                  <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC5EF52-C8DB-2C49-97C1-FDB312888E25}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2296,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D2E261-2FB6-4E8E-94D7-0D8A6E621BD7}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="200" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2311,7 +3449,7 @@
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +3458,7 @@
       </c>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2332,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2344,7 +3482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2359,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2371,7 +3509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="6" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2383,7 +3521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2392,7 +3530,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2400,8 +3538,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -2410,8 +3553,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2419,116 +3564,147 @@
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="16" thickBot="1">
+    <row r="30" spans="1:7" ht="16" thickBot="1">
       <c r="A30" s="9"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="E11:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2817,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBE6CA2-D787-4ED3-BB3B-F601713CE865}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2841,109 +4017,149 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
-      <c r="A12" s="8">
+      <c r="A12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="8">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -3007,8 +4223,9 @@
       <c r="C30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -3245,7 +4462,553 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId14" name="Check Box 39">
+            <control shapeId="1064" r:id="rId14" name="Check Box 40">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId15" name="Check Box 41">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId16" name="Check Box 42">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId17" name="Check Box 43">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId18" name="Check Box 44">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254673E-F4FB-C44F-8713-E7C9BCA8F273}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1" thickBot="1">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="16" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{85E1565B-BB9A-5E4C-B824-110D3DD1E5C9}">
+      <formula1>$A$2:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId4" name="Check Box 1">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5122" r:id="rId5" name="Check Box 2">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5123" r:id="rId6" name="Check Box 3">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5124" r:id="rId7" name="Check Box 4">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5125" r:id="rId8" name="Check Box 5">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5126" r:id="rId9" name="Check Box 6">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5127" r:id="rId10" name="Check Box 7">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5128" r:id="rId11" name="Check Box 8">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5129" r:id="rId12" name="Check Box 9">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5130" r:id="rId13" name="Check Box 10">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>406400</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5131" r:id="rId14" name="Check Box 11">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3267,7 +5030,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId15" name="Check Box 40">
+            <control shapeId="5132" r:id="rId15" name="Check Box 12">
               <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB58A043-4E92-A64E-8D03-A78E0CC83E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC6E62-84D6-F94E-A60A-9AC4C8691CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,15 +376,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,11 +424,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,11 +436,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,11 +468,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2113,14 +2113,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -2129,7 +2134,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E260245-C5ED-F74F-B90A-4B4C535B3C95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2169,20 +2174,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -2191,7 +2201,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C35BF2A-B1E6-3E4F-9286-80FA50374D6C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2231,20 +2241,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -2253,7 +2268,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DF22BF-D0BC-074B-87D1-B69AC1D8B0EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2293,20 +2308,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="292100" cy="330200"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>406400</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -2315,7 +2335,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F832FD32-CA57-6741-A955-B7A7FFB58E82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2355,7 +2375,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2387,7 +2407,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27732C1-DF5C-224F-A62E-55D61A714820}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2454,7 +2474,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACB4B48-A9F2-A041-AB52-EF3ED265A3A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2521,7 +2541,7 @@
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492CD96D-5527-F346-9CEE-1E99F0631E7F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2588,7 +2608,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F7187A-F771-2349-BFED-8086270B2901}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2655,7 +2675,7 @@
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D5A996-ED7E-9E4A-B4E1-469E1300A84A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2722,7 +2742,7 @@
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B8D144-2F12-C444-AA12-92ED9F62BCBF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2789,7 +2809,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64294892-ED74-7E41-A9EE-BE1C160AA69A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2856,7 +2876,7 @@
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F8B1F7-62A9-0247-AC1E-37E8B0FA0F79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2923,7 +2943,7 @@
                   <a14:compatExt spid="_x0000_s5129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F214EC4D-BEA3-8E4D-A665-CADA5E4BF8E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2990,7 +3010,7 @@
                   <a14:compatExt spid="_x0000_s5130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B17930-3333-CB46-98B4-ED9546FF083B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3057,7 +3077,7 @@
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0710C8C8-F705-1B41-8A90-A82E81E8D6B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3124,7 +3144,7 @@
                   <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC5EF52-C8DB-2C49-97C1-FDB312888E25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3538,11 +3558,11 @@
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A9" s="8">
@@ -3552,9 +3572,9 @@
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A10" s="8">
@@ -3564,9 +3584,9 @@
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A11" s="8">
@@ -3574,11 +3594,11 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" thickBot="1">
       <c r="A12" s="8">
@@ -3586,9 +3606,9 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="8">
@@ -3596,49 +3616,49 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="8"/>
@@ -3994,7 +4014,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/8月todoList.xlsx
+++ b/8月todoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC6E62-84D6-F94E-A60A-9AC4C8691CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DE5DC-1E6C-BA4A-8268-4F1FDE0F6C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8.8~8.13" sheetId="3" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4014,7 +4014,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
